--- a/docs/test/Testconcept_OrganisationApp_MyCourses_Angel.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_MyCourses_Angel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA48A30-BADE-4168-A5B3-C58007D57287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD6248-12DC-48DA-B767-223A39DFF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38265" yWindow="3375" windowWidth="29070" windowHeight="15750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="174">
   <si>
     <t>Leere Liste</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>Test-Typ</t>
-  </si>
-  <si>
-    <t>Liste mit genau diesem Kurs</t>
   </si>
   <si>
     <t>Kurs nicht gelöscht</t>
@@ -472,13 +469,97 @@
   </si>
   <si>
     <t>integration_test/my_courses_page_integration_test.dart</t>
+  </si>
+  <si>
+    <t>organisation_app/controller/CourseController</t>
+  </si>
+  <si>
+    <t>ResponseStatusException Unauthorized</t>
+  </si>
+  <si>
+    <t>getCourseById</t>
+  </si>
+  <si>
+    <t>Es liegt Kursinformationen vor</t>
+  </si>
+  <si>
+    <t>Es liegen keine Kursinformationen vor</t>
+  </si>
+  <si>
+    <t>Kursinformationen</t>
+  </si>
+  <si>
+    <t>Gültige Kurs-Id</t>
+  </si>
+  <si>
+    <t>Ungültige Kurs-Id</t>
+  </si>
+  <si>
+    <t>ResponseStatusException NotFound</t>
+  </si>
+  <si>
+    <t>getAllTasksForCourse</t>
+  </si>
+  <si>
+    <t>Es liegen Tasks für den Kurs vor</t>
+  </si>
+  <si>
+    <t>Es liegen keine Tasks für den Kurs vor</t>
+  </si>
+  <si>
+    <t>Liste mit Tasks</t>
+  </si>
+  <si>
+    <t>createCourse</t>
+  </si>
+  <si>
+    <t>Kurs erfolgreich angelegt</t>
+  </si>
+  <si>
+    <t>Kurs nicht angelegt</t>
+  </si>
+  <si>
+    <t>Gültige Modul-Id und Username</t>
+  </si>
+  <si>
+    <t>Ungültige Modul-Id</t>
+  </si>
+  <si>
+    <t>Ungültiges Username</t>
+  </si>
+  <si>
+    <t>Erzeugter Kurs</t>
+  </si>
+  <si>
+    <t>ResponseStatusException Conflict</t>
+  </si>
+  <si>
+    <t>Es liegt genau eine Task für den Kurs vor</t>
+  </si>
+  <si>
+    <t>Kurs bereits vorhanden</t>
+  </si>
+  <si>
+    <t>updateCourseById</t>
+  </si>
+  <si>
+    <t>Gültige Kurs-Id und Kurs</t>
+  </si>
+  <si>
+    <t>Aktualisierter Kurs</t>
+  </si>
+  <si>
+    <t>Keine Ausgabe</t>
+  </si>
+  <si>
+    <t>Kein Kurs zu löschen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +589,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +622,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -653,13 +748,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,26 +836,850 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="96">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -754,6 +1700,142 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1305,6 +2387,28 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1468,71 +2572,155 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
   <autoFilter ref="A4:F15" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="86"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}" name="Table911" displayName="Table911" ref="A73:E75" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="A73:E75" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AE800C69-D48C-469F-8B27-8E3C20A4F9AC}" name="Testfälle" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9B482628-9EFB-4FD6-9E7B-ACAB0F890ECC}" name="Test-Typ" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{50FD7F2C-BBD2-420D-B73E-E72326DDF9FA}" name="Bedingung" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{392B5D38-16ED-4E4B-BDE5-1FF9300EB5B0}" name="Eingaben" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{4E5CE639-7AD1-4909-B873-3887D56BA50A}" name="Erwartete Ausgaben" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}" name="Table91112" displayName="Table91112" ref="A87:E89" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A87:E89" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{380F019D-384D-46EE-9D4E-8A5D7D3E02F9}" name="Testfälle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7E707297-4CC1-4F85-BC71-D446F7EAF1B6}" name="Test-Typ" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{92B23F04-44F3-4FA9-B19F-1854BE662D9F}" name="Bedingung" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8A152B66-A5CC-412B-B978-1062CFF0903C}" name="Eingaben" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{64DE1CB4-0951-457F-8A80-786DAB0086EE}" name="Erwartete Ausgaben" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="A33:E37" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="A50:E53" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A66:E69" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}" name="Table6" displayName="Table6" ref="A11:E15" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="49">
+  <autoFilter ref="A11:E15" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D45BAFD3-A17D-431E-A8DC-0E586886C6BB}" name="Testfälle" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A3CE828B-7A65-467A-A484-062F81D7BDD1}" name="Test-Typ" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{028F41C1-7F89-4C55-993D-3E7BA8DA2F4A}" name="Bedingung" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{3B4326D2-7A2B-4E7A-81C0-0855A0DFAD77}" name="Eingaben" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{DA7E9238-5A08-41F6-9B37-0978E74DA15A}" name="Erwartete Ausgaben" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}" name="Table7" displayName="Table7" ref="A27:E29" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
+  <autoFilter ref="A27:E29" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E0138A14-BE39-41AE-866E-DB95741FBD27}" name="Testfälle" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{81328A7E-884D-48AC-AE97-26945A402043}" name="Test-Typ" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{72D69D40-E618-48A4-8232-F80581710D31}" name="Bedingung" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{B5E56898-1B46-4544-B438-34BC21E421EF}" name="Eingaben" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{1E2F340E-5A77-4A0B-A68F-1C771FE3AB61}" name="Erwartete Ausgaben" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}" name="Table8" displayName="Table8" ref="A41:E45" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="A41:E45" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6FE4AB55-E2B7-435E-B8B6-1591B0B4151E}" name="Testfälle" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{58B37ADE-0E63-4838-8060-71C2CFEC70CE}" name="Test-Typ" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{FA04D83D-CF54-47E0-921B-E80B3D048729}" name="Bedingung" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{CCC6ECED-0112-48EE-A977-ED97707A7256}" name="Eingaben" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{8133A33E-4E37-4E57-8A60-8DC84EFCD208}" name="Erwartete Ausgaben" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}" name="Table9" displayName="Table9" ref="A57:E61" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <autoFilter ref="A57:E61" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0BA2FEF2-3570-4836-B9EA-2A9F7AA09852}" name="Testfälle" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5BC540B2-644D-4AB1-A610-65BED07CB54A}" name="Test-Typ" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F1B0A6F4-1E7A-408F-80CB-212672B7B8C9}" name="Bedingung" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{7DC05564-FF9E-40A3-B5E2-D05D8CC344B1}" name="Eingaben" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{2219C4F7-38D9-4E60-B28B-470ADEFB72FF}" name="Erwartete Ausgaben" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1803,7 +2991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1838,7 +3026,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>44</v>
@@ -1847,7 +3035,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1866,8 +3054,8 @@
       <c r="E5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>142</v>
+      <c r="F5" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1886,8 +3074,8 @@
       <c r="E6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>142</v>
+      <c r="F6" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1906,8 +3094,8 @@
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>142</v>
+      <c r="F7" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,8 +3114,8 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>142</v>
+      <c r="F8" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2018,8 +3206,8 @@
       <c r="E13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>143</v>
+      <c r="F13" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2038,8 +3226,8 @@
       <c r="E14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>144</v>
+      <c r="F14" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2047,19 +3235,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +3262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777E552-38DB-4FF6-8E00-150ECCF800EA}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2358,8 +3548,8 @@
       <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>100</v>
+      <c r="E20" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2777,7 +3967,7 @@
         <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -2798,13 +3988,13 @@
         <v>15</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2838,7 +4028,7 @@
         <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2855,7 +4045,7 @@
         <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2866,13 +4056,13 @@
         <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3237,297 +4427,297 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
+        <v>2</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
-        <v>2</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3544,12 +4734,967 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC10DF8B-338F-4ED2-9F64-130340EF975F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="6">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/test/Testconcept_OrganisationApp_MyCourses_Angel.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_MyCourses_Angel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD6248-12DC-48DA-B767-223A39DFF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E94B1F-6FF3-4A55-B16C-005E59700626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38265" yWindow="3375" windowWidth="29070" windowHeight="15750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38265" yWindow="3375" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="235">
   <si>
     <t>Leere Liste</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Erwartete Ausgaben</t>
   </si>
   <si>
-    <t>MainPage</t>
-  </si>
-  <si>
     <t>Testfälle</t>
   </si>
   <si>
@@ -79,30 +76,6 @@
     <t>Ausgabe</t>
   </si>
   <si>
-    <t>Zwei Card-Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Keine Card-Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Zwei Delete Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Zwei Edit Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Keine Card Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an Card Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an Delete Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an Edit Icons vorhanden</t>
-  </si>
-  <si>
     <t>Seite korrekt geladen</t>
   </si>
   <si>
@@ -127,12 +100,6 @@
     <t>Name und Beschreibung und Button Click Create</t>
   </si>
   <si>
-    <t>Seite korrekt geladen, Item Liste leer</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen, Item Liste nicht leer</t>
-  </si>
-  <si>
     <t>Szenario</t>
   </si>
   <si>
@@ -166,9 +133,6 @@
     <t>Klasse</t>
   </si>
   <si>
-    <t>Methode</t>
-  </si>
-  <si>
     <t>unit-test</t>
   </si>
   <si>
@@ -193,25 +157,10 @@
     <t>Course</t>
   </si>
   <si>
-    <t>toJsonMap</t>
-  </si>
-  <si>
-    <t>fromJsonMap</t>
-  </si>
-  <si>
-    <t>toJsonString</t>
-  </si>
-  <si>
-    <t>fromJsonString</t>
-  </si>
-  <si>
     <t>lib/model/course.dart</t>
   </si>
   <si>
     <t>MyCoursesPage</t>
-  </si>
-  <si>
-    <t>build</t>
   </si>
   <si>
     <t>widget-test</t>
@@ -471,9 +420,6 @@
     <t>integration_test/my_courses_page_integration_test.dart</t>
   </si>
   <si>
-    <t>organisation_app/controller/CourseController</t>
-  </si>
-  <si>
     <t>ResponseStatusException Unauthorized</t>
   </si>
   <si>
@@ -553,6 +499,269 @@
   </si>
   <si>
     <t>Kein Kurs zu löschen</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>CourseController</t>
+  </si>
+  <si>
+    <t>test/java/…/controller/CourseControllerTest.java</t>
+  </si>
+  <si>
+    <t>Alles</t>
+  </si>
+  <si>
+    <t>main/java/.../controller/CourseController.java</t>
+  </si>
+  <si>
+    <t>main/java/.../controller/UserController.java</t>
+  </si>
+  <si>
+    <t>UserController</t>
+  </si>
+  <si>
+    <t>test/java/…/controller/UserControllerTest.java</t>
+  </si>
+  <si>
+    <t>main/java/.../model/AppUser.java</t>
+  </si>
+  <si>
+    <t>AppUser</t>
+  </si>
+  <si>
+    <t>main/java/.../model/CalendarEvent.java</t>
+  </si>
+  <si>
+    <t>CalendarEvent</t>
+  </si>
+  <si>
+    <t>test/java/…/model/AppUserTest.java</t>
+  </si>
+  <si>
+    <t>main/java/.../model/Course.java</t>
+  </si>
+  <si>
+    <t>main/java/.../model/CourseSubscription.java</t>
+  </si>
+  <si>
+    <t>CourseSubscription</t>
+  </si>
+  <si>
+    <t>main/java/.../model/FrequencyType.java</t>
+  </si>
+  <si>
+    <t>FrequencyType</t>
+  </si>
+  <si>
+    <t>main/java/.../model/UserType.java</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>main/java/.../service/CourseService.java</t>
+  </si>
+  <si>
+    <t>main/java/.../service/UserService.java</t>
+  </si>
+  <si>
+    <t>CourseService</t>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>test/java/…/model/CalendarEventTest.java</t>
+  </si>
+  <si>
+    <t>test/java/…/model/CourseTest.java</t>
+  </si>
+  <si>
+    <t>test/java/…/model/CourseSubscriptionTest.java</t>
+  </si>
+  <si>
+    <t>lib/model/app_user.dart</t>
+  </si>
+  <si>
+    <t>AppUser, UserType</t>
+  </si>
+  <si>
+    <t>lib/model/course_subscription.dart</t>
+  </si>
+  <si>
+    <t>lib/model/weekday.dart</t>
+  </si>
+  <si>
+    <t>Weekday, WeekdayExtension</t>
+  </si>
+  <si>
+    <t>lib/app/routes.dart</t>
+  </si>
+  <si>
+    <t>appRoutes</t>
+  </si>
+  <si>
+    <t>test/model/course_test.dart</t>
+  </si>
+  <si>
+    <t>test/model/weekday_test.dart</t>
+  </si>
+  <si>
+    <t>test/model/app_user_test.dart</t>
+  </si>
+  <si>
+    <t>test/model/course_subscription_test.dart</t>
+  </si>
+  <si>
+    <t>test/app/routes_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>Test-Objekte</t>
+  </si>
+  <si>
+    <t>lib/pages/chatgpt/chatgpt_page.dart</t>
+  </si>
+  <si>
+    <t>lib/pages/login/login_page.dart</t>
+  </si>
+  <si>
+    <t>lib/pages/login/initialization_page.dart</t>
+  </si>
+  <si>
+    <t>InitializationPage</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>ChatGptPage</t>
+  </si>
+  <si>
+    <t>lib/pages/primuss/primuss_page.dart</t>
+  </si>
+  <si>
+    <t>PrimussPage</t>
+  </si>
+  <si>
+    <t>MoodlePage</t>
+  </si>
+  <si>
+    <t>lib/shared/menu_drawer.dart</t>
+  </si>
+  <si>
+    <t>MenuDrawer</t>
+  </si>
+  <si>
+    <t>Test-Elemente</t>
+  </si>
+  <si>
+    <t>test/pages/login/initialization_page_test.dart</t>
+  </si>
+  <si>
+    <t>test/pages/chatgpt/chatgpt_page_test.dart</t>
+  </si>
+  <si>
+    <t>test/pages/primuss/primuss_page_test.dart</t>
+  </si>
+  <si>
+    <t>test/shared/menu_drawer_test.dart</t>
+  </si>
+  <si>
+    <t>test/pages/login/login_page_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>test/pages/moodle/moodle_page_test.dart</t>
+  </si>
+  <si>
+    <t>OrganisationApp -&gt; MyCourses</t>
+  </si>
+  <si>
+    <t>floatingActionButton</t>
+  </si>
+  <si>
+    <t>ModuleDetailsPage</t>
+  </si>
+  <si>
+    <t>test/pages/modules/modules_details_page_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>lib/pages/modules/modules_details_page.dart</t>
+  </si>
+  <si>
+    <t>lib/pages/moodle/moodle_page.dart</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>Delete button auf Kurs klicken</t>
+  </si>
+  <si>
+    <t>Keine ListTile Widgets vorhanden</t>
+  </si>
+  <si>
+    <t>Entsprechende Anzahl an ListTile Widgets vorhanden</t>
+  </si>
+  <si>
+    <t>Seite korrekt geladen, Kurs Liste leer</t>
+  </si>
+  <si>
+    <t>Seite korrekt geladen, Kurs Liste nicht leer</t>
+  </si>
+  <si>
+    <t>Kurs klicken and zurück klicken</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden,
+Update button vorhanden, 
+Zwei ListTile Widgets vorhanden,
+Zwei delete icons vorhanden,
+Zwei CircleAvatars vorhanden.
+Nach dem Klick:
+MyCoursesPage vorhanden, 
+Zwei ListTile Widgets vorhanden,
+Zwei delete icons vorhanden,
+Zwei CircleAvatars vorhanden.</t>
+  </si>
+  <si>
+    <t>FloatingActionButton "Add Course" klicken</t>
+  </si>
+  <si>
+    <t>Update view button klicken</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden,
+Ein  ListTile Widget vorhanden,
+Nach dem Klick:
+Update dialog vorhanden.
+Nach dem Zuruckklicken:
+MyCoursesPage vorhanden,
+Ein  ListTile Widget vorhanden</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden,
+Ein ListTile Widget vorhanden.
+Nach dem Klick:
+MyCoursesPage vorhanden,
+Null ListTile Widgets vorhanden.</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden, 
+Keine ListTile Widgets vorhanden.
+Nach dem Klick:
+Placeholder for Modules vorhanden.</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden, 
+Zwei ListTile Widgets vorhanden,
+Zwei delete icons vorhanden,
+Zwei CircleAvatars vorhanden.</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden, 
+Keine ListTile Widgets vorhanden.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -690,17 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -718,17 +916,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -775,13 +962,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,29 +1015,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,18 +1037,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
+  <dxfs count="110">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -878,108 +1133,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -991,12 +1161,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1027,6 +1191,40 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1045,108 +1243,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1158,12 +1271,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1194,6 +1301,55 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1317,233 +1473,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1571,6 +1517,129 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1615,72 +1684,111 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1694,12 +1802,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1716,12 +1820,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1738,12 +1838,202 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1772,32 +2062,22 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1826,6 +2106,216 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -2409,70 +2899,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2572,155 +2998,181 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
-  <autoFilter ref="A4:F15" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F30" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+  <autoFilter ref="A4:F30" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Test-Objekte" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{DA367DB5-EB29-4D71-B715-BACC2427D81B}" name="Test-Elemente" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}" name="Table911" displayName="Table911" ref="A73:E75" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="A73:E75" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}" name="Table8" displayName="Table8" ref="A41:E45" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="53" tableBorderDxfId="54" totalsRowBorderDxfId="52">
+  <autoFilter ref="A41:E45" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AE800C69-D48C-469F-8B27-8E3C20A4F9AC}" name="Testfälle" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{9B482628-9EFB-4FD6-9E7B-ACAB0F890ECC}" name="Test-Typ" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{50FD7F2C-BBD2-420D-B73E-E72326DDF9FA}" name="Bedingung" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{392B5D38-16ED-4E4B-BDE5-1FF9300EB5B0}" name="Eingaben" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{4E5CE639-7AD1-4909-B873-3887D56BA50A}" name="Erwartete Ausgaben" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6FE4AB55-E2B7-435E-B8B6-1591B0B4151E}" name="Testfälle" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{58B37ADE-0E63-4838-8060-71C2CFEC70CE}" name="Test-Typ" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{FA04D83D-CF54-47E0-921B-E80B3D048729}" name="Bedingung" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{CCC6ECED-0112-48EE-A977-ED97707A7256}" name="Eingaben" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{8133A33E-4E37-4E57-8A60-8DC84EFCD208}" name="Erwartete Ausgaben" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}" name="Table91112" displayName="Table91112" ref="A87:E89" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}" name="Table9" displayName="Table9" ref="A57:E61" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="50">
+  <autoFilter ref="A57:E61" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0BA2FEF2-3570-4836-B9EA-2A9F7AA09852}" name="Testfälle" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{5BC540B2-644D-4AB1-A610-65BED07CB54A}" name="Test-Typ" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{F1B0A6F4-1E7A-408F-80CB-212672B7B8C9}" name="Bedingung" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{7DC05564-FF9E-40A3-B5E2-D05D8CC344B1}" name="Eingaben" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{2219C4F7-38D9-4E60-B28B-470ADEFB72FF}" name="Erwartete Ausgaben" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}" name="Table911" displayName="Table911" ref="A73:E75" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31">
+  <autoFilter ref="A73:E75" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AE800C69-D48C-469F-8B27-8E3C20A4F9AC}" name="Testfälle" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9B482628-9EFB-4FD6-9E7B-ACAB0F890ECC}" name="Test-Typ" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{50FD7F2C-BBD2-420D-B73E-E72326DDF9FA}" name="Bedingung" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{392B5D38-16ED-4E4B-BDE5-1FF9300EB5B0}" name="Eingaben" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{4E5CE639-7AD1-4909-B873-3887D56BA50A}" name="Erwartete Ausgaben" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}" name="Table91112" displayName="Table91112" ref="A87:E89" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
   <autoFilter ref="A87:E89" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{380F019D-384D-46EE-9D4E-8A5D7D3E02F9}" name="Testfälle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7E707297-4CC1-4F85-BC71-D446F7EAF1B6}" name="Test-Typ" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{92B23F04-44F3-4FA9-B19F-1854BE662D9F}" name="Bedingung" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8A152B66-A5CC-412B-B978-1062CFF0903C}" name="Eingaben" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{64DE1CB4-0951-457F-8A80-786DAB0086EE}" name="Erwartete Ausgaben" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{380F019D-384D-46EE-9D4E-8A5D7D3E02F9}" name="Testfälle" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7E707297-4CC1-4F85-BC71-D446F7EAF1B6}" name="Test-Typ" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{92B23F04-44F3-4FA9-B19F-1854BE662D9F}" name="Bedingung" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8A152B66-A5CC-412B-B978-1062CFF0903C}" name="Eingaben" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{64DE1CB4-0951-457F-8A80-786DAB0086EE}" name="Erwartete Ausgaben" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="A33:E37" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <autoFilter ref="A50:E53" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="A66:E69" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}" name="Table6" displayName="Table6" ref="A11:E15" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="49">
-  <autoFilter ref="A11:E15" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D45BAFD3-A17D-431E-A8DC-0E586886C6BB}" name="Testfälle" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A3CE828B-7A65-467A-A484-062F81D7BDD1}" name="Test-Typ" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{028F41C1-7F89-4C55-993D-3E7BA8DA2F4A}" name="Bedingung" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{3B4326D2-7A2B-4E7A-81C0-0855A0DFAD77}" name="Eingaben" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{DA7E9238-5A08-41F6-9B37-0978E74DA15A}" name="Erwartete Ausgaben" dataDxfId="40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B05E7FD0-AFDE-4A20-ADA0-469B98284A6E}" name="Table614" displayName="Table614" ref="A10:D16" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A10:D16" xr:uid="{B05E7FD0-AFDE-4A20-ADA0-469B98284A6E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9946D6F0-1BB5-4957-86BC-3B60E30E1BA7}" name="Testfälle" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{531186E5-99A5-4DA3-96C3-818749967498}" name="Bedingung" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E90662D6-66C5-415C-B6A2-F5EE7FF8B0A4}" name="Eingaben" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C6055F91-E6D8-428D-8C54-A707A535C38E}" name="Erwartetes Ergebnis" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}" name="Table7" displayName="Table7" ref="A27:E29" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
-  <autoFilter ref="A27:E29" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0138A14-BE39-41AE-866E-DB95741FBD27}" name="Testfälle" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{81328A7E-884D-48AC-AE97-26945A402043}" name="Test-Typ" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{72D69D40-E618-48A4-8232-F80581710D31}" name="Bedingung" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{B5E56898-1B46-4544-B438-34BC21E421EF}" name="Eingaben" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{1E2F340E-5A77-4A0B-A68F-1C771FE3AB61}" name="Erwartete Ausgaben" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E926FB31-98B7-4D7C-AC46-97DD760D49D9}" name="Table61415" displayName="Table61415" ref="A27:D33" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A27:D33" xr:uid="{E926FB31-98B7-4D7C-AC46-97DD760D49D9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{03897000-DB16-4460-BF21-07B7219DF5FD}" name="Testfälle" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DDCE8F3E-35BC-485D-992B-81CAD70489C3}" name="Bedingung" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EBB629A9-4839-44DD-BE15-528C491F0055}" name="Eingaben" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{23C41393-B3A9-45BF-BFCB-6F94F458531E}" name="Erwartetes Ergebnis" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}" name="Table8" displayName="Table8" ref="A41:E45" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="A41:E45" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}" name="Table6" displayName="Table6" ref="A11:E15" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="66">
+  <autoFilter ref="A11:E15" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6FE4AB55-E2B7-435E-B8B6-1591B0B4151E}" name="Testfälle" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{58B37ADE-0E63-4838-8060-71C2CFEC70CE}" name="Test-Typ" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{FA04D83D-CF54-47E0-921B-E80B3D048729}" name="Bedingung" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{CCC6ECED-0112-48EE-A977-ED97707A7256}" name="Eingaben" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{8133A33E-4E37-4E57-8A60-8DC84EFCD208}" name="Erwartete Ausgaben" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D45BAFD3-A17D-431E-A8DC-0E586886C6BB}" name="Testfälle" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{A3CE828B-7A65-467A-A484-062F81D7BDD1}" name="Test-Typ" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{028F41C1-7F89-4C55-993D-3E7BA8DA2F4A}" name="Bedingung" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{3B4326D2-7A2B-4E7A-81C0-0855A0DFAD77}" name="Eingaben" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{DA7E9238-5A08-41F6-9B37-0978E74DA15A}" name="Erwartete Ausgaben" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}" name="Table9" displayName="Table9" ref="A57:E61" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="33">
-  <autoFilter ref="A57:E61" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}" name="Table7" displayName="Table7" ref="A27:E29" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="62" tableBorderDxfId="63" totalsRowBorderDxfId="61">
+  <autoFilter ref="A27:E29" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0BA2FEF2-3570-4836-B9EA-2A9F7AA09852}" name="Testfälle" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5BC540B2-644D-4AB1-A610-65BED07CB54A}" name="Test-Typ" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F1B0A6F4-1E7A-408F-80CB-212672B7B8C9}" name="Bedingung" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{7DC05564-FF9E-40A3-B5E2-D05D8CC344B1}" name="Eingaben" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{2219C4F7-38D9-4E60-B28B-470ADEFB72FF}" name="Erwartete Ausgaben" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E0138A14-BE39-41AE-866E-DB95741FBD27}" name="Testfälle" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{81328A7E-884D-48AC-AE97-26945A402043}" name="Test-Typ" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{72D69D40-E618-48A4-8232-F80581710D31}" name="Bedingung" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{B5E56898-1B46-4544-B438-34BC21E421EF}" name="Eingaben" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{1E2F340E-5A77-4A0B-A68F-1C771FE3AB61}" name="Erwartete Ausgaben" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2989,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3001,253 +3453,561 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
     <col min="6" max="6" width="65.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>38</v>
+      <c r="A1" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>62</v>
+      <c r="A3" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="E6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="C11" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>142</v>
+      <c r="A13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>143</v>
+      <c r="A14" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>138</v>
+      <c r="A15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>145</v>
+        <v>197</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3262,9 +4022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777E552-38DB-4FF6-8E00-150ECCF800EA}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3278,62 +4036,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>43</v>
+      <c r="A2" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
+      <c r="A3" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
+      <c r="A4" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3346,10 +4104,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3359,13 +4117,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3375,36 +4133,36 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3417,198 +4175,198 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>8</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>81</v>
+      <c r="C20" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>43</v>
+      <c r="A23" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>44</v>
+      <c r="A24" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>66</v>
+      <c r="A25" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3618,50 +4376,50 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3674,126 +4432,126 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="23">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="23">
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>43</v>
+      <c r="A40" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>44</v>
+      <c r="A41" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
-        <v>66</v>
+      <c r="A42" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -3802,45 +4560,45 @@
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3853,109 +4611,109 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="23">
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
+      <c r="A52" s="23">
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="A53" s="23">
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
-        <v>43</v>
+      <c r="A56" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
-        <v>44</v>
+      <c r="A57" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>66</v>
+      <c r="A58" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -3964,45 +4722,45 @@
         <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -4015,54 +4773,54 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
+      <c r="A67" s="23">
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="25">
+      <c r="A68" s="23">
         <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="A69" s="23">
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4078,317 +4836,594 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10" style="14" customWidth="1"/>
-    <col min="3" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" customWidth="1"/>
-    <col min="7" max="11" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="26.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B15" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B16" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12">
+      <c r="B31" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>5</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>6</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12">
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8" t="s">
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="12">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8" t="s">
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="12">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="12">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="12">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="12">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
+      <c r="F45" s="5"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4396,9 +5431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4410,314 +5443,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>35</v>
+      <c r="A1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>133</v>
+      <c r="B2" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E23" s="38" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
-        <v>2</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4734,191 +5767,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC10DF8B-338F-4ED2-9F64-130340EF975F}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>43</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>4</v>
       </c>
@@ -4926,329 +5938,287 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>44</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>44</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>4</v>
       </c>
@@ -5256,118 +6226,118 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>43</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>44</v>
+      <c r="A49" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>66</v>
+      <c r="A50" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="B52" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="34" t="s">
+      <c r="A57" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5376,16 +6346,16 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -5393,16 +6363,16 @@
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -5410,16 +6380,16 @@
         <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -5427,105 +6397,105 @@
         <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
-        <v>43</v>
+      <c r="A64" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>44</v>
+      <c r="A65" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>66</v>
+      <c r="A66" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="21"/>
+      <c r="B68" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5534,16 +6504,16 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -5551,103 +6521,103 @@
         <v>2</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
-        <v>43</v>
+      <c r="A78" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
-        <v>44</v>
+      <c r="A79" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
-        <v>66</v>
+      <c r="A80" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="21"/>
+      <c r="B82" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="34" t="s">
+      <c r="A87" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5656,16 +6626,16 @@
         <v>1</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -5673,16 +6643,16 @@
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test/Testconcept_OrganisationApp_MyCourses_Angel.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_MyCourses_Angel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E94B1F-6FF3-4A55-B16C-005E59700626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078919A0-7531-48F6-8D5A-25C8AAF43861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38265" yWindow="3375" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
@@ -29,20 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="236">
   <si>
     <t>Leere Liste</t>
   </si>
   <si>
-    <t>CreateItemPage</t>
-  </si>
-  <si>
     <t>Erwartetes Ergebnis</t>
   </si>
   <si>
-    <t>keine</t>
-  </si>
-  <si>
     <t>Äquivalenzklassen</t>
   </si>
   <si>
@@ -74,30 +68,6 @@
   </si>
   <si>
     <t>Ausgabe</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen</t>
-  </si>
-  <si>
-    <t>Zwei Textfelder und ein Button mit Text Create  korrekt geladen, Hint Texte für Namen und Beschreibung vorhanden</t>
-  </si>
-  <si>
-    <t>Seite wechselt zu MainPage</t>
-  </si>
-  <si>
-    <t>Seite wechselt nicht, Validiation Text im Namensfeld vorhanden</t>
-  </si>
-  <si>
-    <t>Seite wechselt nicht, Validiation Text im Beschreibungsfeld vorhanden</t>
-  </si>
-  <si>
-    <t>Beschreibung aber kein Name &amp; Button Click Create</t>
-  </si>
-  <si>
-    <t>Name aber keine Beschreibung &amp; Button Click Create</t>
-  </si>
-  <si>
-    <t>Name und Beschreibung und Button Click Create</t>
   </si>
   <si>
     <t>Szenario</t>
@@ -699,12 +669,6 @@
     <t>Delete button auf Kurs klicken</t>
   </si>
   <si>
-    <t>Keine ListTile Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an ListTile Widgets vorhanden</t>
-  </si>
-  <si>
     <t>Seite korrekt geladen, Kurs Liste leer</t>
   </si>
   <si>
@@ -714,54 +678,74 @@
     <t>Kurs klicken and zurück klicken</t>
   </si>
   <si>
-    <t>MyCoursesPage vorhanden,
-Update button vorhanden, 
-Zwei ListTile Widgets vorhanden,
-Zwei delete icons vorhanden,
-Zwei CircleAvatars vorhanden.
-Nach dem Klick:
-MyCoursesPage vorhanden, 
-Zwei ListTile Widgets vorhanden,
-Zwei delete icons vorhanden,
-Zwei CircleAvatars vorhanden.</t>
-  </si>
-  <si>
     <t>FloatingActionButton "Add Course" klicken</t>
   </si>
   <si>
     <t>Update view button klicken</t>
-  </si>
-  <si>
-    <t>MyCoursesPage vorhanden,
-Ein  ListTile Widget vorhanden,
-Nach dem Klick:
-Update dialog vorhanden.
-Nach dem Zuruckklicken:
-MyCoursesPage vorhanden,
-Ein  ListTile Widget vorhanden</t>
-  </si>
-  <si>
-    <t>MyCoursesPage vorhanden,
-Ein ListTile Widget vorhanden.
-Nach dem Klick:
-MyCoursesPage vorhanden,
-Null ListTile Widgets vorhanden.</t>
-  </si>
-  <si>
-    <t>MyCoursesPage vorhanden, 
-Keine ListTile Widgets vorhanden.
-Nach dem Klick:
-Placeholder for Modules vorhanden.</t>
-  </si>
-  <si>
-    <t>MyCoursesPage vorhanden, 
-Zwei ListTile Widgets vorhanden,
-Zwei delete icons vorhanden,
-Zwei CircleAvatars vorhanden.</t>
   </si>
   <si>
     <t>MyCoursesPage vorhanden, 
 Keine ListTile Widgets vorhanden.</t>
+  </si>
+  <si>
+    <t>Dialog korrekt geladen</t>
+  </si>
+  <si>
+    <t>Update Course dialog vorhanden, 
+3 Bereiche vorhanden,
+Labels sind gesetzt,
+Buttons und Text sind gesetzt.</t>
+  </si>
+  <si>
+    <t>Placeholder for Modules vorhanden.</t>
+  </si>
+  <si>
+    <t>MyCoursesPage vorhanden, 
+Entsprechende ListTile Widgets vorhanden,
+Entsprechende delete icons vorhanden,
+Entsprechende CircleAvatars vorhanden.</t>
+  </si>
+  <si>
+    <t>Update dialog vorhanden.</t>
+  </si>
+  <si>
+    <t>Auf Course-StartDate klicken</t>
+  </si>
+  <si>
+    <t>Auf  Course-EndDate klicken</t>
+  </si>
+  <si>
+    <t>Auf Lecture-StartTime klicken</t>
+  </si>
+  <si>
+    <t>Auf Lecture-End-Time klicken</t>
+  </si>
+  <si>
+    <t>Auf Lecture-Day of Week klicken</t>
+  </si>
+  <si>
+    <t>Auf Lab-Day of Week klicken</t>
+  </si>
+  <si>
+    <t>Auf Lab-StartTime klicken</t>
+  </si>
+  <si>
+    <t>Auf Lab-End-Time klicken</t>
+  </si>
+  <si>
+    <t>TimePicker mit OK-Taste vorhanden</t>
+  </si>
+  <si>
+    <t>DatePicker mit OK-Taste vorhanden</t>
+  </si>
+  <si>
+    <t>Dropdown mit Wochentag vorhanden</t>
+  </si>
+  <si>
+    <t>Kein UpdateCourseDialog vorhanden</t>
+  </si>
+  <si>
+    <t>Auf Update-Button klicken</t>
   </si>
 </sst>
 </file>
@@ -807,18 +791,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -838,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -962,24 +940,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -988,20 +955,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,10 +970,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,9 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,25 +990,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1071,46 +1023,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="112">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1136,7 +1098,29 @@
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1151,6 +1135,72 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1191,78 +1241,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2998,181 +2976,181 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F30" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F30" totalsRowShown="0" headerRowDxfId="111" headerRowBorderDxfId="110" tableBorderDxfId="109" totalsRowBorderDxfId="108">
   <autoFilter ref="A4:F30" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Test-Objekte" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{DA367DB5-EB29-4D71-B715-BACC2427D81B}" name="Test-Elemente" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Test-Objekte" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DA367DB5-EB29-4D71-B715-BACC2427D81B}" name="Test-Elemente" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}" name="Table8" displayName="Table8" ref="A41:E45" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="53" tableBorderDxfId="54" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}" name="Table8" displayName="Table8" ref="A41:E45" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
   <autoFilter ref="A41:E45" xr:uid="{9F5396AA-74C9-440E-9500-082F97418ED5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6FE4AB55-E2B7-435E-B8B6-1591B0B4151E}" name="Testfälle" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{58B37ADE-0E63-4838-8060-71C2CFEC70CE}" name="Test-Typ" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{FA04D83D-CF54-47E0-921B-E80B3D048729}" name="Bedingung" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{CCC6ECED-0112-48EE-A977-ED97707A7256}" name="Eingaben" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{8133A33E-4E37-4E57-8A60-8DC84EFCD208}" name="Erwartete Ausgaben" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{6FE4AB55-E2B7-435E-B8B6-1591B0B4151E}" name="Testfälle" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{58B37ADE-0E63-4838-8060-71C2CFEC70CE}" name="Test-Typ" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{FA04D83D-CF54-47E0-921B-E80B3D048729}" name="Bedingung" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{CCC6ECED-0112-48EE-A977-ED97707A7256}" name="Eingaben" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{8133A33E-4E37-4E57-8A60-8DC84EFCD208}" name="Erwartete Ausgaben" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}" name="Table9" displayName="Table9" ref="A57:E61" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}" name="Table9" displayName="Table9" ref="A57:E61" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="52">
   <autoFilter ref="A57:E61" xr:uid="{F58F2C59-255E-4965-A03B-94F0CEA13384}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0BA2FEF2-3570-4836-B9EA-2A9F7AA09852}" name="Testfälle" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{5BC540B2-644D-4AB1-A610-65BED07CB54A}" name="Test-Typ" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{F1B0A6F4-1E7A-408F-80CB-212672B7B8C9}" name="Bedingung" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{7DC05564-FF9E-40A3-B5E2-D05D8CC344B1}" name="Eingaben" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{2219C4F7-38D9-4E60-B28B-470ADEFB72FF}" name="Erwartete Ausgaben" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{0BA2FEF2-3570-4836-B9EA-2A9F7AA09852}" name="Testfälle" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{5BC540B2-644D-4AB1-A610-65BED07CB54A}" name="Test-Typ" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{F1B0A6F4-1E7A-408F-80CB-212672B7B8C9}" name="Bedingung" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{7DC05564-FF9E-40A3-B5E2-D05D8CC344B1}" name="Eingaben" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{2219C4F7-38D9-4E60-B28B-470ADEFB72FF}" name="Erwartete Ausgaben" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}" name="Table911" displayName="Table911" ref="A73:E75" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}" name="Table911" displayName="Table911" ref="A73:E75" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33">
   <autoFilter ref="A73:E75" xr:uid="{DD8FE11C-2438-4049-A42D-CF49EF196CF3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AE800C69-D48C-469F-8B27-8E3C20A4F9AC}" name="Testfälle" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9B482628-9EFB-4FD6-9E7B-ACAB0F890ECC}" name="Test-Typ" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{50FD7F2C-BBD2-420D-B73E-E72326DDF9FA}" name="Bedingung" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{392B5D38-16ED-4E4B-BDE5-1FF9300EB5B0}" name="Eingaben" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{4E5CE639-7AD1-4909-B873-3887D56BA50A}" name="Erwartete Ausgaben" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{AE800C69-D48C-469F-8B27-8E3C20A4F9AC}" name="Testfälle" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9B482628-9EFB-4FD6-9E7B-ACAB0F890ECC}" name="Test-Typ" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{50FD7F2C-BBD2-420D-B73E-E72326DDF9FA}" name="Bedingung" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{392B5D38-16ED-4E4B-BDE5-1FF9300EB5B0}" name="Eingaben" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{4E5CE639-7AD1-4909-B873-3887D56BA50A}" name="Erwartete Ausgaben" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}" name="Table91112" displayName="Table91112" ref="A87:E89" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}" name="Table91112" displayName="Table91112" ref="A87:E89" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
   <autoFilter ref="A87:E89" xr:uid="{F9402861-339B-44E1-87F1-41C7C73C9105}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{380F019D-384D-46EE-9D4E-8A5D7D3E02F9}" name="Testfälle" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{7E707297-4CC1-4F85-BC71-D446F7EAF1B6}" name="Test-Typ" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{92B23F04-44F3-4FA9-B19F-1854BE662D9F}" name="Bedingung" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{8A152B66-A5CC-412B-B978-1062CFF0903C}" name="Eingaben" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{64DE1CB4-0951-457F-8A80-786DAB0086EE}" name="Erwartete Ausgaben" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{380F019D-384D-46EE-9D4E-8A5D7D3E02F9}" name="Testfälle" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7E707297-4CC1-4F85-BC71-D446F7EAF1B6}" name="Test-Typ" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{92B23F04-44F3-4FA9-B19F-1854BE662D9F}" name="Bedingung" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{8A152B66-A5CC-412B-B978-1062CFF0903C}" name="Eingaben" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{64DE1CB4-0951-457F-8A80-786DAB0086EE}" name="Erwartete Ausgaben" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="104" headerRowBorderDxfId="103" tableBorderDxfId="102" totalsRowBorderDxfId="101">
   <autoFilter ref="A33:E37" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
   <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="A50:E53" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
   <autoFilter ref="A66:E69" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B05E7FD0-AFDE-4A20-ADA0-469B98284A6E}" name="Table614" displayName="Table614" ref="A10:D16" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B05E7FD0-AFDE-4A20-ADA0-469B98284A6E}" name="Table614" displayName="Table614" ref="A10:D16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="9" headerRowBorderDxfId="13" tableBorderDxfId="14" dataCellStyle="Normal">
   <autoFilter ref="A10:D16" xr:uid="{B05E7FD0-AFDE-4A20-ADA0-469B98284A6E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9946D6F0-1BB5-4957-86BC-3B60E30E1BA7}" name="Testfälle" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{531186E5-99A5-4DA3-96C3-818749967498}" name="Bedingung" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E90662D6-66C5-415C-B6A2-F5EE7FF8B0A4}" name="Eingaben" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C6055F91-E6D8-428D-8C54-A707A535C38E}" name="Erwartetes Ergebnis" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{9946D6F0-1BB5-4957-86BC-3B60E30E1BA7}" name="Testfälle" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{531186E5-99A5-4DA3-96C3-818749967498}" name="Bedingung" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E90662D6-66C5-415C-B6A2-F5EE7FF8B0A4}" name="Eingaben" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{C6055F91-E6D8-428D-8C54-A707A535C38E}" name="Erwartetes Ergebnis" dataDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E926FB31-98B7-4D7C-AC46-97DD760D49D9}" name="Table61415" displayName="Table61415" ref="A27:D33" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A27:D33" xr:uid="{E926FB31-98B7-4D7C-AC46-97DD760D49D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E926FB31-98B7-4D7C-AC46-97DD760D49D9}" name="Table61415" displayName="Table61415" ref="A27:D37" totalsRowShown="0" headerRowDxfId="12" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A27:D37" xr:uid="{E926FB31-98B7-4D7C-AC46-97DD760D49D9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{03897000-DB16-4460-BF21-07B7219DF5FD}" name="Testfälle" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DDCE8F3E-35BC-485D-992B-81CAD70489C3}" name="Bedingung" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EBB629A9-4839-44DD-BE15-528C491F0055}" name="Eingaben" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{23C41393-B3A9-45BF-BFCB-6F94F458531E}" name="Erwartetes Ergebnis" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{03897000-DB16-4460-BF21-07B7219DF5FD}" name="Testfälle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DDCE8F3E-35BC-485D-992B-81CAD70489C3}" name="Bedingung" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EBB629A9-4839-44DD-BE15-528C491F0055}" name="Eingaben" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{23C41393-B3A9-45BF-BFCB-6F94F458531E}" name="Erwartetes Ergebnis" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}" name="Table6" displayName="Table6" ref="A11:E15" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}" name="Table6" displayName="Table6" ref="A11:E15" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="68">
   <autoFilter ref="A11:E15" xr:uid="{AED57674-1357-4261-869F-C4F770D1964C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D45BAFD3-A17D-431E-A8DC-0E586886C6BB}" name="Testfälle" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{A3CE828B-7A65-467A-A484-062F81D7BDD1}" name="Test-Typ" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{028F41C1-7F89-4C55-993D-3E7BA8DA2F4A}" name="Bedingung" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{3B4326D2-7A2B-4E7A-81C0-0855A0DFAD77}" name="Eingaben" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{DA7E9238-5A08-41F6-9B37-0978E74DA15A}" name="Erwartete Ausgaben" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{D45BAFD3-A17D-431E-A8DC-0E586886C6BB}" name="Testfälle" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{A3CE828B-7A65-467A-A484-062F81D7BDD1}" name="Test-Typ" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{028F41C1-7F89-4C55-993D-3E7BA8DA2F4A}" name="Bedingung" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{3B4326D2-7A2B-4E7A-81C0-0855A0DFAD77}" name="Eingaben" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{DA7E9238-5A08-41F6-9B37-0978E74DA15A}" name="Erwartete Ausgaben" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}" name="Table7" displayName="Table7" ref="A27:E29" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="62" tableBorderDxfId="63" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}" name="Table7" displayName="Table7" ref="A27:E29" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
   <autoFilter ref="A27:E29" xr:uid="{2AA13F25-C7B4-4238-AA3B-A23A8A0253F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0138A14-BE39-41AE-866E-DB95741FBD27}" name="Testfälle" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{81328A7E-884D-48AC-AE97-26945A402043}" name="Test-Typ" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{72D69D40-E618-48A4-8232-F80581710D31}" name="Bedingung" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{B5E56898-1B46-4544-B438-34BC21E421EF}" name="Eingaben" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{1E2F340E-5A77-4A0B-A68F-1C771FE3AB61}" name="Erwartete Ausgaben" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{E0138A14-BE39-41AE-866E-DB95741FBD27}" name="Testfälle" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{81328A7E-884D-48AC-AE97-26945A402043}" name="Test-Typ" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{72D69D40-E618-48A4-8232-F80581710D31}" name="Bedingung" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{B5E56898-1B46-4544-B438-34BC21E421EF}" name="Eingaben" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{1E2F340E-5A77-4A0B-A68F-1C771FE3AB61}" name="Erwartete Ausgaben" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3443,9 +3421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3458,556 +3434,556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>45</v>
+      <c r="A3" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="E6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="D19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="42" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="42" t="s">
+      <c r="D26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="18" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="D30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>163</v>
+        <v>149</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +3998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777E552-38DB-4FF6-8E00-150ECCF800EA}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4036,62 +4012,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>32</v>
+      <c r="A2" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>33</v>
+      <c r="A3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
+      <c r="A4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4100,14 +4076,14 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
+      <c r="A8" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4116,14 +4092,14 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
+      <c r="A9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4132,695 +4108,695 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>8</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>5</v>
+      <c r="A29" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
+      <c r="A30" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>14</v>
+      <c r="A31" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
-        <v>2</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
+      <c r="A67" s="17">
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+      <c r="A69" s="17">
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4838,556 +4814,564 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>32</v>
+      <c r="A2" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>2</v>
+      <c r="A10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>1</v>
       </c>
       <c r="E10" s="1"/>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="40">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E11" s="1"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>220</v>
+      <c r="B12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>232</v>
+        <v>212</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>227</v>
+      <c r="B14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E14" s="1"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
         <v>5</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="B15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
         <v>6</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>32</v>
+      <c r="B16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>5</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="I24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="D35" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
         <v>9</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>2</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>4</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>5</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>6</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="B40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="12">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="12">
-        <v>2</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="12">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="12">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="B45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46"/>
@@ -5431,11 +5415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10" style="7" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -5443,314 +5427,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>24</v>
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>116</v>
+      <c r="B2" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
+        <v>2</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E22" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E23" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
-        <v>2</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5769,9 +5753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC10DF8B-338F-4ED2-9F64-130340EF975F}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5784,875 +5766,875 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>32</v>
+      <c r="A2" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>33</v>
+      <c r="A3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
+      <c r="A4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
+      <c r="A7" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
+      <c r="A8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="A11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>13</v>
+      <c r="A38" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>14</v>
+      <c r="A39" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="30" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="6">
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="6">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="6">
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="E59" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>4</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="B73" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="E73" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>2</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
-        <v>1</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
-        <v>2</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="19"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
-        <v>1</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
-        <v>2</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
